--- a/biology/Médecine/Mémoriaux,_fosses_et_cimetières_du_choléra/Mémoriaux,_fosses_et_cimetières_du_choléra.xlsx
+++ b/biology/Médecine/Mémoriaux,_fosses_et_cimetières_du_choléra/Mémoriaux,_fosses_et_cimetières_du_choléra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9moriaux,_fosses_et_cimeti%C3%A8res_du_chol%C3%A9ra</t>
+          <t>Mémoriaux,_fosses_et_cimetières_du_choléra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fosses et cimetières du choléra étaient des lieux d'inhumation utilisés en cas d'urgence lorsque le choléra était répandu. Ces fosses communes étaient souvent non marquées et étaient placées dans des endroits éloignés ou spécialement sélectionnés. Les craintes de la population concernant la contagion, le manque de place dans les cimetières existants et les restrictions imposées aux déplacements des personnes d'un endroit à l'autre ont également contribué à leur création et à leur utilisation. De nombreuses victimes étaient pauvres et n'avaient pas les moyens d'acheter des pierres commémoratives. Des mémoriaux ont ensuite souvent été placés sur ces lieux d'inhumations. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9moriaux,_fosses_et_cimeti%C3%A8res_du_chol%C3%A9ra</t>
+          <t>Mémoriaux,_fosses_et_cimetières_du_choléra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Mémorial au cimetière Ohlsdorf pour les 6500 victimes de l'épidémie de 1892
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9moriaux,_fosses_et_cimeti%C3%A8res_du_chol%C3%A9ra</t>
+          <t>Mémoriaux,_fosses_et_cimetières_du_choléra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Autriche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cimetière du choléra de Maria Dreieichen
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9moriaux,_fosses_et_cimeti%C3%A8res_du_chol%C3%A9ra</t>
+          <t>Mémoriaux,_fosses_et_cimetières_du_choléra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Obélisque à Mirabeau en mémoire de victimes d'une épidémie de choléra
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9moriaux,_fosses_et_cimeti%C3%A8res_du_chol%C3%A9ra</t>
+          <t>Mémoriaux,_fosses_et_cimetières_du_choléra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Hongrie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cimetière du choléra de Miskolc
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M%C3%A9moriaux,_fosses_et_cimeti%C3%A8res_du_chol%C3%A9ra</t>
+          <t>Mémoriaux,_fosses_et_cimetières_du_choléra</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Cimetières du choléra et mémoriaux en Pologne
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M%C3%A9moriaux,_fosses_et_cimeti%C3%A8res_du_chol%C3%A9ra</t>
+          <t>Mémoriaux,_fosses_et_cimetières_du_choléra</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,13 +701,15 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Fosses
 			Le site de la fosse du choléra de 1834 près de Spier's School (en), North Ayrshire, Écosse.
 			Détail du site de la fosse du choléra près de la ferme Soth Barr, Barrmill (en), Ayrshire, Écosse.
-			Fosse de Penzance, où 64 décès dus au choléra ont été enregistrés au cours des trois mois de septembre à novembre 1832. À Newlyn, qui se trouvait alors dans la paroisse de Paul, il y en a eu plus de cent[1].
+			Fosse de Penzance, où 64 décès dus au choléra ont été enregistrés au cours des trois mois de septembre à novembre 1832. À Newlyn, qui se trouvait alors dans la paroisse de Paul, il y en a eu plus de cent.
 			Église St Maurs-Glencairn, site de la fosse du choléra, East Ayrshire, Écosse.
 	Mémoriaux au Royaume-Uni
 			Pierre de délimitation de la fosse à choléra dans le parc Howard, Kilmarnock, East Ayrshire, Écosse.
@@ -703,7 +727,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M%C3%A9moriaux,_fosses_et_cimeti%C3%A8res_du_chol%C3%A9ra</t>
+          <t>Mémoriaux,_fosses_et_cimetières_du_choléra</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -721,7 +745,9 @@
           <t>Suède</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Cimetières du choléra et mémoriaux en Suède
